--- a/results/mp/logistic/corona/confidence/126/stop-words-topk-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-topk-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,73 +58,76 @@
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>hope</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>share</t>
   </si>
   <si>
     <t>care</t>
@@ -485,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,7 +499,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -554,13 +557,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.726027397260274</v>
+        <v>0.7363013698630136</v>
       </c>
       <c r="C3">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D3">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -572,19 +575,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -596,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -604,13 +607,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3862433862433862</v>
+        <v>0.417989417989418</v>
       </c>
       <c r="C4">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D4">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -622,19 +625,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4">
-        <v>0.925</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -646,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -654,13 +657,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3197674418604651</v>
+        <v>0.2945736434108527</v>
       </c>
       <c r="C5">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="D5">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -672,19 +675,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9152542372881356</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -696,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -704,13 +707,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1677852348993289</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -722,19 +725,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K6">
-        <v>0.8571428571428571</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -746,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -754,13 +757,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8333333333333334</v>
+        <v>0.7963446475195822</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>305</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>305</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -772,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -780,13 +783,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8328981723237598</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L8">
-        <v>319</v>
+        <v>46</v>
       </c>
       <c r="M8">
-        <v>319</v>
+        <v>46</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -798,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -806,13 +809,13 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8113207547169812</v>
+        <v>0.78125</v>
       </c>
       <c r="L9">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="M9">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -824,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -832,13 +835,13 @@
         <v>20</v>
       </c>
       <c r="K10">
-        <v>0.7931034482758621</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L10">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="M10">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -850,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -858,13 +861,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.7926829268292683</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L11">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="M11">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -876,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -884,13 +887,13 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.75625</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L12">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="M12">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -902,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -913,10 +916,10 @@
         <v>0.75</v>
       </c>
       <c r="L13">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="M13">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -928,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -936,13 +939,13 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7323943661971831</v>
+        <v>0.75</v>
       </c>
       <c r="L14">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="M14">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -954,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -962,13 +965,13 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>0.7265625</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="M15">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -980,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -988,13 +991,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.7222222222222222</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L16">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M16">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1006,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1014,13 +1017,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.7021276595744681</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L17">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M17">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1032,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1040,13 +1043,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6666666666666666</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L18">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M18">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1058,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1066,13 +1069,13 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.66</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1084,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1092,13 +1095,13 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.6279069767441861</v>
+        <v>0.625</v>
       </c>
       <c r="L20">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M20">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1110,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1118,13 +1121,13 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.6235294117647059</v>
+        <v>0.6</v>
       </c>
       <c r="L21">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="M21">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1136,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1144,13 +1147,13 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5941422594142259</v>
+        <v>0.6</v>
       </c>
       <c r="L22">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1162,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>97</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1170,13 +1173,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5627118644067797</v>
+        <v>0.5899581589958159</v>
       </c>
       <c r="L23">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="M23">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1188,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1196,13 +1199,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5538461538461539</v>
+        <v>0.5796610169491525</v>
       </c>
       <c r="L24">
-        <v>36</v>
+        <v>171</v>
       </c>
       <c r="M24">
-        <v>36</v>
+        <v>171</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1214,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>29</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1274,13 +1277,13 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.449438202247191</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L27">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M27">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1292,7 +1295,33 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>49</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28">
+        <v>0.4382022471910113</v>
+      </c>
+      <c r="L28">
+        <v>39</v>
+      </c>
+      <c r="M28">
+        <v>39</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
